--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED5C53C93F672C4CCFD525482678A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E13E083-EF62-428F-8F40-3DCB6179008E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="70">
   <si>
     <t>month_year</t>
   </si>
@@ -229,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +299,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +630,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -720,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -788,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -856,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -924,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -992,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1128,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1196,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1264,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1468,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1536,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1604,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1740,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1808,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1876,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1944,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2012,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2080,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2148,7 +2200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2216,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2284,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2352,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2420,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2488,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2556,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2624,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2692,7 +2744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2760,7 +2812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2828,7 +2880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2896,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2964,7 +3016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3032,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3100,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3168,7 +3220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3236,7 +3288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3304,7 +3356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3372,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3440,7 +3492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3508,7 +3560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3576,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3644,7 +3696,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3712,7 +3764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3780,7 +3832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3848,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3916,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3984,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4052,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4120,7 +4172,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4188,7 +4240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4324,7 +4376,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4392,7 +4444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4460,7 +4512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4528,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4596,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4664,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4732,7 +4784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4800,7 +4852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4868,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4936,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5004,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5072,7 +5124,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5140,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5208,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5276,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5344,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5412,7 +5464,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5480,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5548,7 +5600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5616,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5684,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5752,7 +5804,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5820,7 +5872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5888,7 +5940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5956,7 +6008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6024,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6092,7 +6144,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6160,7 +6212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6228,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6296,7 +6348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6364,7 +6416,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6432,7 +6484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6500,7 +6552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6568,7 +6620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6636,7 +6688,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6704,7 +6756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6772,7 +6824,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6840,7 +6892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6908,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6976,7 +7028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7044,7 +7096,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7112,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7180,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7248,7 +7300,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7316,7 +7368,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7384,7 +7436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7452,7 +7504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7520,7 +7572,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7588,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7656,7 +7708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7724,7 +7776,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7792,7 +7844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7860,7 +7912,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7928,7 +7980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7996,7 +8048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8064,7 +8116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8132,7 +8184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8200,7 +8252,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8268,7 +8320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8336,7 +8388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8404,7 +8456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8472,7 +8524,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8540,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8608,7 +8660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8676,7 +8728,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8744,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8812,7 +8864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8880,7 +8932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8948,7 +9000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9016,7 +9068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9084,7 +9136,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9152,7 +9204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9220,7 +9272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9288,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9356,7 +9408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9424,7 +9476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9492,7 +9544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9560,7 +9612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9628,7 +9680,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9696,7 +9748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9764,7 +9816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9832,7 +9884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9900,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9968,7 +10020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10036,7 +10088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10104,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10172,7 +10224,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10240,7 +10292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10308,7 +10360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10376,7 +10428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10444,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10512,7 +10564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10580,7 +10632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10648,7 +10700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10716,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10784,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10852,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10920,7 +10972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10988,7 +11040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11056,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11124,7 +11176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11192,7 +11244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11260,7 +11312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11328,7 +11380,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11396,7 +11448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11464,7 +11516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11532,7 +11584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11600,7 +11652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11668,7 +11720,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11676,67 +11728,67 @@
         <v>49</v>
       </c>
       <c r="C164" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="K164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="L164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="M164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="N164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="O164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="P164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="Q164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="S164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="T164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="U164">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="V164">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11744,67 +11796,67 @@
         <v>49</v>
       </c>
       <c r="C165" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="F165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="G165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="J165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="K165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="L165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="M165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="N165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="O165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="P165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="Q165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="R165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="S165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="T165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="U165">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="V165">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11812,67 +11864,67 @@
         <v>49</v>
       </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U166">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11880,67 +11932,67 @@
         <v>49</v>
       </c>
       <c r="C167" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="E167">
-        <v>769</v>
+        <v>21</v>
       </c>
       <c r="F167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="G167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="H167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="I167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="J167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="K167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="L167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="M167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="N167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="O167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="P167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="Q167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="R167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="S167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="T167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="U167">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="V167">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11948,67 +12000,67 @@
         <v>49</v>
       </c>
       <c r="C168" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="O168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="P168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="R168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="S168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="T168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="U168">
-        <v>1</v>
+        <v>866</v>
       </c>
       <c r="V168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12016,67 +12068,67 @@
         <v>49</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="M169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="O169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="P169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Q169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="S169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="T169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="U169">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="V169">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12084,67 +12136,67 @@
         <v>49</v>
       </c>
       <c r="C170" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E170">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="T170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U170">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V170">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12152,67 +12204,67 @@
         <v>49</v>
       </c>
       <c r="C171" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E171">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="G171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="H171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="I171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="J171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="K171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="L171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="M171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="P171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="Q171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="R171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="S171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="T171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="U171">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="V171">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12220,67 +12272,67 @@
         <v>49</v>
       </c>
       <c r="C172" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="E172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="F172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="G172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="H172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="I172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="J172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="K172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="L172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="M172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="N172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="O172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="P172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="Q172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="R172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="S172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="T172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="U172">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="V172">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12288,67 +12340,67 @@
         <v>49</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E173">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="F173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="G173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="H173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="J173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="K173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="L173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="M173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="N173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="O173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="P173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="Q173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="R173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="S173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="T173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="U173">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="V173">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12356,64 +12408,132 @@
         <v>49</v>
       </c>
       <c r="C174" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174">
+        <v>33</v>
+      </c>
+      <c r="E174">
+        <v>32</v>
+      </c>
+      <c r="F174">
+        <v>33</v>
+      </c>
+      <c r="G174">
+        <v>33</v>
+      </c>
+      <c r="H174">
+        <v>33</v>
+      </c>
+      <c r="I174">
+        <v>33</v>
+      </c>
+      <c r="J174">
+        <v>33</v>
+      </c>
+      <c r="K174">
+        <v>33</v>
+      </c>
+      <c r="L174">
+        <v>33</v>
+      </c>
+      <c r="M174">
+        <v>33</v>
+      </c>
+      <c r="N174">
+        <v>33</v>
+      </c>
+      <c r="O174">
+        <v>33</v>
+      </c>
+      <c r="P174">
+        <v>33</v>
+      </c>
+      <c r="Q174">
+        <v>33</v>
+      </c>
+      <c r="R174">
+        <v>33</v>
+      </c>
+      <c r="S174">
+        <v>33</v>
+      </c>
+      <c r="T174">
+        <v>33</v>
+      </c>
+      <c r="U174">
+        <v>33</v>
+      </c>
+      <c r="V174">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" t="s">
         <v>53</v>
       </c>
-      <c r="D174">
-        <v>842</v>
-      </c>
-      <c r="E174">
-        <v>838</v>
-      </c>
-      <c r="F174">
-        <v>842</v>
-      </c>
-      <c r="G174">
-        <v>842</v>
-      </c>
-      <c r="H174">
-        <v>842</v>
-      </c>
-      <c r="I174">
-        <v>842</v>
-      </c>
-      <c r="J174">
-        <v>842</v>
-      </c>
-      <c r="K174">
-        <v>842</v>
-      </c>
-      <c r="L174">
-        <v>842</v>
-      </c>
-      <c r="M174">
-        <v>842</v>
-      </c>
-      <c r="N174">
-        <v>842</v>
-      </c>
-      <c r="O174">
-        <v>842</v>
-      </c>
-      <c r="P174">
-        <v>842</v>
-      </c>
-      <c r="Q174">
-        <v>842</v>
-      </c>
-      <c r="R174">
-        <v>842</v>
-      </c>
-      <c r="S174">
-        <v>842</v>
-      </c>
-      <c r="T174">
-        <v>842</v>
-      </c>
-      <c r="U174">
-        <v>842</v>
-      </c>
-      <c r="V174">
-        <v>842</v>
+      <c r="D175">
+        <v>924</v>
+      </c>
+      <c r="E175">
+        <v>920</v>
+      </c>
+      <c r="F175">
+        <v>924</v>
+      </c>
+      <c r="G175">
+        <v>924</v>
+      </c>
+      <c r="H175">
+        <v>924</v>
+      </c>
+      <c r="I175">
+        <v>924</v>
+      </c>
+      <c r="J175">
+        <v>924</v>
+      </c>
+      <c r="K175">
+        <v>924</v>
+      </c>
+      <c r="L175">
+        <v>924</v>
+      </c>
+      <c r="M175">
+        <v>924</v>
+      </c>
+      <c r="N175">
+        <v>924</v>
+      </c>
+      <c r="O175">
+        <v>924</v>
+      </c>
+      <c r="P175">
+        <v>924</v>
+      </c>
+      <c r="Q175">
+        <v>924</v>
+      </c>
+      <c r="R175">
+        <v>924</v>
+      </c>
+      <c r="S175">
+        <v>924</v>
+      </c>
+      <c r="T175">
+        <v>924</v>
+      </c>
+      <c r="U175">
+        <v>924</v>
+      </c>
+      <c r="V175">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED5C53C93F672C4CCFD525482678A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E13E083-EF62-428F-8F40-3DCB6179008E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDEEA3CC0BA72D4CD9652440C878A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6784E026-6B79-47FB-A6A9-200CB90CD033}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -633,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
@@ -11799,61 +11811,61 @@
         <v>62</v>
       </c>
       <c r="D165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="R165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="S165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="T165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="U165">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="V165">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.4">
@@ -11867,61 +11879,61 @@
         <v>66</v>
       </c>
       <c r="D166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V166">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.4">
@@ -12003,61 +12015,61 @@
         <v>65</v>
       </c>
       <c r="D168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="E168">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="F168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="G168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="H168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="I168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="J168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="K168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="L168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="M168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="N168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="O168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="P168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="Q168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="R168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="S168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="T168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="U168">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="V168">
-        <v>866</v>
+        <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.4">
@@ -12139,61 +12151,61 @@
         <v>54</v>
       </c>
       <c r="D170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="R170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="U170">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="V170">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.4">
@@ -12207,61 +12219,61 @@
         <v>52</v>
       </c>
       <c r="D171">
+        <v>49</v>
+      </c>
+      <c r="E171">
         <v>48</v>
       </c>
-      <c r="E171">
-        <v>47</v>
-      </c>
       <c r="F171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U171">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V171">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.4">
@@ -12275,61 +12287,61 @@
         <v>69</v>
       </c>
       <c r="D172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="E172">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="F172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="G172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="H172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="I172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="J172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="K172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="L172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="M172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="N172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="O172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="P172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="Q172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="R172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="S172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="T172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="U172">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="V172">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.4">
@@ -12343,61 +12355,61 @@
         <v>67</v>
       </c>
       <c r="D173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="E173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="F173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="G173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="I173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="J173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="K173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="L173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="M173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="N173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="O173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="P173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="R173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="S173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="T173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="U173">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="V173">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.4">
@@ -12411,61 +12423,61 @@
         <v>51</v>
       </c>
       <c r="D174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E174">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U174">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V174">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.4">
@@ -12479,61 +12491,61 @@
         <v>53</v>
       </c>
       <c r="D175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="E175">
-        <v>920</v>
+        <v>972</v>
       </c>
       <c r="F175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="G175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="H175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="I175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="J175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="K175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="L175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="M175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="N175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="O175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="P175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="Q175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="R175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="S175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="T175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="U175">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="V175">
-        <v>924</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -8,26 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDEEA3CC0BA72D4CD9652440C878A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6784E026-6B79-47FB-A6A9-200CB90CD033}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDEEA3CC0BA72D4CC455A7438479A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71536631-F06A-4F3E-B3D1-63BBA50D8CB6}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -645,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDEEA3CC0BA72D4CC455A7438479A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71536631-F06A-4F3E-B3D1-63BBA50D8CB6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDEEA3CC0BA72D4C8D456360C479A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80B1CB9-11A6-4876-9FB7-23C4837EDB3E}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$175</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -631,10 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -704,7 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -772,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -840,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -908,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -976,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4784,7 +4788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4920,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5396,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6348,7 +6352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7708,7 +7712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8116,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8728,7 +8732,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9204,7 +9208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9272,7 +9276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10156,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10292,7 +10296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10360,7 +10364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10496,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10632,7 +10636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11176,7 +11180,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11244,7 +11248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11448,7 +11452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -12537,6 +12541,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V175" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2022-06"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDEEA3CC0BA72D4C8D456360C479A7229C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80B1CB9-11A6-4876-9FB7-23C4837EDB3E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$175</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="71">
   <si>
     <t>month_year</t>
   </si>
@@ -175,6 +166,9 @@
     <t>2022-06</t>
   </si>
   <si>
+    <t>2022-07</t>
+  </si>
+  <si>
     <t>Original (cepa italiana)</t>
   </si>
   <si>
@@ -238,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,14 +296,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -356,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,27 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,24 +408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,17 +583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -716,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -776,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -784,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -844,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -852,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -912,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -920,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -980,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -988,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1048,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1056,7 +1003,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1116,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1124,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1184,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1192,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1252,7 +1199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1260,7 +1207,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1320,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1328,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1388,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1396,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1456,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1464,7 +1411,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1524,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1532,7 +1479,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1592,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1600,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1660,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1668,7 +1615,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1728,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1736,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1796,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1804,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1864,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1872,7 +1819,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1932,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1940,7 +1887,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2000,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2008,7 +1955,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2068,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2076,7 +2023,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2136,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2144,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2204,7 +2151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2212,7 +2159,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2272,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2280,7 +2227,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2340,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2348,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2408,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2416,7 +2363,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2476,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2484,7 +2431,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2544,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2552,7 +2499,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2612,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2620,7 +2567,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2680,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2688,7 +2635,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>23</v>
@@ -2748,7 +2695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2756,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -2816,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2824,7 +2771,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -2884,7 +2831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2892,7 +2839,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2952,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2960,7 +2907,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>38</v>
@@ -3020,7 +2967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3028,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>42</v>
@@ -3088,7 +3035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3096,7 +3043,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3156,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3164,7 +3111,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>73</v>
@@ -3224,7 +3171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3232,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -3292,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3300,7 +3247,7 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>22</v>
@@ -3360,7 +3307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3368,7 +3315,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -3428,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3436,7 +3383,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>48</v>
@@ -3496,7 +3443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3504,7 +3451,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -3564,7 +3511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3572,7 +3519,7 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -3632,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3640,7 +3587,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45">
         <v>241</v>
@@ -3700,7 +3647,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3708,7 +3655,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>11</v>
@@ -3768,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3776,7 +3723,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>21</v>
@@ -3836,7 +3783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3844,7 +3791,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3904,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3912,7 +3859,7 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -3972,7 +3919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3980,7 +3927,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4040,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4048,7 +3995,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4108,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4116,7 +4063,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>117</v>
@@ -4176,7 +4123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4184,7 +4131,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <v>22</v>
@@ -4244,7 +4191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4252,7 +4199,7 @@
         <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4312,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4320,7 +4267,7 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>640</v>
@@ -4380,7 +4327,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4388,7 +4335,7 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>15</v>
@@ -4448,7 +4395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4456,7 +4403,7 @@
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>19</v>
@@ -4516,7 +4463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4524,7 +4471,7 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -4584,7 +4531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4592,7 +4539,7 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4652,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4660,7 +4607,7 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4720,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4728,7 +4675,7 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>124</v>
@@ -4788,7 +4735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4796,7 +4743,7 @@
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -4856,7 +4803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4864,7 +4811,7 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -4924,7 +4871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4932,7 +4879,7 @@
         <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64">
         <v>15</v>
@@ -4992,7 +4939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5000,7 +4947,7 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -5060,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5068,7 +5015,7 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>444</v>
@@ -5128,7 +5075,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5136,7 +5083,7 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -5196,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5204,7 +5151,7 @@
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -5264,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5272,7 +5219,7 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>10</v>
@@ -5332,7 +5279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5340,7 +5287,7 @@
         <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5400,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5408,7 +5355,7 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>245</v>
@@ -5468,7 +5415,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5476,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5536,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5544,7 +5491,7 @@
         <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -5604,7 +5551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5612,7 +5559,7 @@
         <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -5672,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5680,7 +5627,7 @@
         <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5740,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5748,7 +5695,7 @@
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D76">
         <v>953</v>
@@ -5808,7 +5755,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5816,7 +5763,7 @@
         <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D77">
         <v>16</v>
@@ -5876,7 +5823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5884,7 +5831,7 @@
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <v>58</v>
@@ -5944,7 +5891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5952,7 +5899,7 @@
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>72</v>
@@ -6012,7 +5959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6020,7 +5967,7 @@
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -6080,7 +6027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6088,7 +6035,7 @@
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D81">
         <v>288</v>
@@ -6148,7 +6095,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6156,7 +6103,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D82">
         <v>36</v>
@@ -6216,7 +6163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6224,7 +6171,7 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -6284,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6292,7 +6239,7 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -6352,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6360,7 +6307,7 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D85">
         <v>690</v>
@@ -6420,7 +6367,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6428,7 +6375,7 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86">
         <v>7</v>
@@ -6488,7 +6435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6496,7 +6443,7 @@
         <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -6556,7 +6503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6564,7 +6511,7 @@
         <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <v>142</v>
@@ -6624,7 +6571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6632,7 +6579,7 @@
         <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89">
         <v>317</v>
@@ -6692,7 +6639,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6700,7 +6647,7 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -6760,7 +6707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6768,7 +6715,7 @@
         <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D91">
         <v>280</v>
@@ -6828,7 +6775,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6836,7 +6783,7 @@
         <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D92">
         <v>84</v>
@@ -6896,7 +6843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6904,7 +6851,7 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -6964,7 +6911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6972,7 +6919,7 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -7032,7 +6979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7040,7 +6987,7 @@
         <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D95">
         <v>406</v>
@@ -7100,7 +7047,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7108,7 +7055,7 @@
         <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -7168,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7176,7 +7123,7 @@
         <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -7236,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7244,7 +7191,7 @@
         <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D98">
         <v>169</v>
@@ -7304,7 +7251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7312,7 +7259,7 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D99">
         <v>850</v>
@@ -7372,7 +7319,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7380,7 +7327,7 @@
         <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -7440,7 +7387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7448,7 +7395,7 @@
         <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D101">
         <v>63</v>
@@ -7508,7 +7455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7516,7 +7463,7 @@
         <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D102">
         <v>72</v>
@@ -7576,7 +7523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7584,7 +7531,7 @@
         <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -7644,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7652,7 +7599,7 @@
         <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D104">
         <v>20</v>
@@ -7712,7 +7659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7720,7 +7667,7 @@
         <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D105">
         <v>297</v>
@@ -7780,7 +7727,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7788,7 +7735,7 @@
         <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -7848,7 +7795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7856,7 +7803,7 @@
         <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D107">
         <v>1405</v>
@@ -7916,7 +7863,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7924,7 +7871,7 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D108">
         <v>17</v>
@@ -7984,7 +7931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7992,7 +7939,7 @@
         <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D109">
         <v>30</v>
@@ -8052,7 +7999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8060,7 +8007,7 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D110">
         <v>9</v>
@@ -8120,7 +8067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8128,7 +8075,7 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D111">
         <v>99</v>
@@ -8188,7 +8135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8196,7 +8143,7 @@
         <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>1500</v>
@@ -8256,7 +8203,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8264,7 +8211,7 @@
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D113">
         <v>7</v>
@@ -8324,7 +8271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:22">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8332,7 +8279,7 @@
         <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D114">
         <v>17</v>
@@ -8392,7 +8339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8400,7 +8347,7 @@
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D115">
         <v>45</v>
@@ -8460,7 +8407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:22">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8468,7 +8415,7 @@
         <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D116">
         <v>1358</v>
@@ -8528,7 +8475,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8536,7 +8483,7 @@
         <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -8596,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:22">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8604,7 +8551,7 @@
         <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -8664,7 +8611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:22">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8672,7 +8619,7 @@
         <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D119">
         <v>406</v>
@@ -8732,7 +8679,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8740,7 +8687,7 @@
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8800,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:22">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8808,7 +8755,7 @@
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D121">
         <v>14</v>
@@ -8868,7 +8815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:22">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8876,7 +8823,7 @@
         <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -8936,7 +8883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8944,7 +8891,7 @@
         <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D123">
         <v>101</v>
@@ -9004,7 +8951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:22">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9012,7 +8959,7 @@
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D124">
         <v>38</v>
@@ -9072,7 +9019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:22">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9080,7 +9027,7 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D125">
         <v>1092</v>
@@ -9140,7 +9087,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:22">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9148,7 +9095,7 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -9208,7 +9155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:22">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9216,7 +9163,7 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D127">
         <v>18</v>
@@ -9276,7 +9223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:22">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9284,7 +9231,7 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9344,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9352,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D129">
         <v>20</v>
@@ -9412,7 +9359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9420,7 +9367,7 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -9480,7 +9427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9488,7 +9435,7 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -9548,7 +9495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9556,7 +9503,7 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D132">
         <v>40</v>
@@ -9616,7 +9563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9624,7 +9571,7 @@
         <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D133">
         <v>1391</v>
@@ -9684,7 +9631,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9692,7 +9639,7 @@
         <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -9752,7 +9699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:22">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9760,7 +9707,7 @@
         <v>45</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -9820,7 +9767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:22">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9828,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D136">
         <v>14</v>
@@ -9888,7 +9835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:22">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9896,7 +9843,7 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -9956,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:22">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9964,7 +9911,7 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -10024,7 +9971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:22">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10032,7 +9979,7 @@
         <v>46</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D139">
         <v>34</v>
@@ -10092,7 +10039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10100,7 +10047,7 @@
         <v>46</v>
       </c>
       <c r="C140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -10160,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10168,7 +10115,7 @@
         <v>46</v>
       </c>
       <c r="C141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D141">
         <v>729</v>
@@ -10228,7 +10175,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:22">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10236,7 +10183,7 @@
         <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D142">
         <v>11</v>
@@ -10296,7 +10243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:22">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10304,7 +10251,7 @@
         <v>46</v>
       </c>
       <c r="C143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D143">
         <v>17</v>
@@ -10364,7 +10311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:22">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10372,7 +10319,7 @@
         <v>47</v>
       </c>
       <c r="C144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -10432,7 +10379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:22">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10440,7 +10387,7 @@
         <v>47</v>
       </c>
       <c r="C145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -10500,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:22">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10508,7 +10455,7 @@
         <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D146">
         <v>45</v>
@@ -10568,7 +10515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:22">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10576,7 +10523,7 @@
         <v>47</v>
       </c>
       <c r="C147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -10636,7 +10583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:22">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10644,7 +10591,7 @@
         <v>47</v>
       </c>
       <c r="C148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D148">
         <v>255</v>
@@ -10704,7 +10651,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:22">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10712,7 +10659,7 @@
         <v>47</v>
       </c>
       <c r="C149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -10772,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:22">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10780,7 +10727,7 @@
         <v>47</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -10840,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:22">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10848,7 +10795,7 @@
         <v>47</v>
       </c>
       <c r="C151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -10908,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:22">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10916,7 +10863,7 @@
         <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -10976,7 +10923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:22">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10984,7 +10931,7 @@
         <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D153">
         <v>12</v>
@@ -11044,7 +10991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:22">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11052,7 +10999,7 @@
         <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -11112,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:22">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11120,7 +11067,7 @@
         <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D155">
         <v>150</v>
@@ -11180,7 +11127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:22">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11188,7 +11135,7 @@
         <v>48</v>
       </c>
       <c r="C156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D156">
         <v>37</v>
@@ -11248,7 +11195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:22">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11256,7 +11203,7 @@
         <v>48</v>
       </c>
       <c r="C157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -11316,7 +11263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:22">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11324,7 +11271,7 @@
         <v>48</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D158">
         <v>607</v>
@@ -11384,7 +11331,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:22">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11392,7 +11339,7 @@
         <v>48</v>
       </c>
       <c r="C159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D159">
         <v>10</v>
@@ -11452,7 +11399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:22">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11460,7 +11407,7 @@
         <v>48</v>
       </c>
       <c r="C160" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D160">
         <v>4</v>
@@ -11520,7 +11467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:22">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11528,7 +11475,7 @@
         <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -11588,7 +11535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:22">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11596,7 +11543,7 @@
         <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D162">
         <v>17</v>
@@ -11656,7 +11603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:22">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11664,7 +11611,7 @@
         <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D163">
         <v>304</v>
@@ -11724,75 +11671,72 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:22">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
       </c>
-      <c r="C164" t="s">
-        <v>54</v>
-      </c>
       <c r="D164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11800,67 +11744,67 @@
         <v>49</v>
       </c>
       <c r="C165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="R165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="S165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="T165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="U165">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V165">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11868,67 +11812,67 @@
         <v>49</v>
       </c>
       <c r="C166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U166">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V166">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11936,7 +11880,7 @@
         <v>49</v>
       </c>
       <c r="C167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D167">
         <v>21</v>
@@ -11996,7 +11940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:22">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -12004,67 +11948,67 @@
         <v>49</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="E168">
-        <v>885</v>
+        <v>931</v>
       </c>
       <c r="F168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="G168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="H168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="I168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="J168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="K168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="L168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="M168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="N168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="O168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="P168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="Q168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="R168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="S168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="T168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="U168">
-        <v>889</v>
+        <v>935</v>
       </c>
       <c r="V168">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12072,7 +12016,7 @@
         <v>49</v>
       </c>
       <c r="C169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -12132,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:22">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12140,67 +12084,67 @@
         <v>49</v>
       </c>
       <c r="C170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U170">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V170">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12208,67 +12152,67 @@
         <v>49</v>
       </c>
       <c r="C171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E171">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="R171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="S171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="U171">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V171">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12276,67 +12220,67 @@
         <v>49</v>
       </c>
       <c r="C172" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="E172">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="F172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="G172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="H172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="I172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="J172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="K172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="L172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="M172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="N172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="O172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="P172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Q172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="R172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="S172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="T172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="U172">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="V172">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12344,67 +12288,67 @@
         <v>49</v>
       </c>
       <c r="C173" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="E173">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="F173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="G173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="H173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="I173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="J173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="K173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="L173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="M173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="N173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="O173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="P173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="Q173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="R173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="S173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="U173">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="V173">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12412,67 +12356,67 @@
         <v>49</v>
       </c>
       <c r="C174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D174">
+        <v>36</v>
+      </c>
+      <c r="E174">
         <v>35</v>
       </c>
-      <c r="E174">
-        <v>34</v>
-      </c>
       <c r="F174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V174">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12480,74 +12424,744 @@
         <v>49</v>
       </c>
       <c r="C175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175">
+        <v>1061</v>
+      </c>
+      <c r="E175">
+        <v>1054</v>
+      </c>
+      <c r="F175">
+        <v>1061</v>
+      </c>
+      <c r="G175">
+        <v>1061</v>
+      </c>
+      <c r="H175">
+        <v>1061</v>
+      </c>
+      <c r="I175">
+        <v>1061</v>
+      </c>
+      <c r="J175">
+        <v>1061</v>
+      </c>
+      <c r="K175">
+        <v>1061</v>
+      </c>
+      <c r="L175">
+        <v>1061</v>
+      </c>
+      <c r="M175">
+        <v>1061</v>
+      </c>
+      <c r="N175">
+        <v>1061</v>
+      </c>
+      <c r="O175">
+        <v>1061</v>
+      </c>
+      <c r="P175">
+        <v>1061</v>
+      </c>
+      <c r="Q175">
+        <v>1061</v>
+      </c>
+      <c r="R175">
+        <v>1061</v>
+      </c>
+      <c r="S175">
+        <v>1061</v>
+      </c>
+      <c r="T175">
+        <v>1061</v>
+      </c>
+      <c r="U175">
+        <v>1061</v>
+      </c>
+      <c r="V175">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>50</v>
+      </c>
+      <c r="D176">
+        <v>52</v>
+      </c>
+      <c r="E176">
+        <v>51</v>
+      </c>
+      <c r="F176">
+        <v>52</v>
+      </c>
+      <c r="G176">
+        <v>52</v>
+      </c>
+      <c r="H176">
+        <v>52</v>
+      </c>
+      <c r="I176">
+        <v>52</v>
+      </c>
+      <c r="J176">
+        <v>52</v>
+      </c>
+      <c r="K176">
+        <v>52</v>
+      </c>
+      <c r="L176">
+        <v>52</v>
+      </c>
+      <c r="M176">
+        <v>52</v>
+      </c>
+      <c r="N176">
+        <v>52</v>
+      </c>
+      <c r="O176">
+        <v>52</v>
+      </c>
+      <c r="P176">
+        <v>52</v>
+      </c>
+      <c r="Q176">
+        <v>52</v>
+      </c>
+      <c r="R176">
+        <v>52</v>
+      </c>
+      <c r="S176">
+        <v>52</v>
+      </c>
+      <c r="T176">
+        <v>52</v>
+      </c>
+      <c r="U176">
+        <v>52</v>
+      </c>
+      <c r="V176">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>16</v>
+      </c>
+      <c r="G177">
+        <v>16</v>
+      </c>
+      <c r="H177">
+        <v>16</v>
+      </c>
+      <c r="I177">
+        <v>16</v>
+      </c>
+      <c r="J177">
+        <v>16</v>
+      </c>
+      <c r="K177">
+        <v>16</v>
+      </c>
+      <c r="L177">
+        <v>16</v>
+      </c>
+      <c r="M177">
+        <v>16</v>
+      </c>
+      <c r="N177">
+        <v>16</v>
+      </c>
+      <c r="O177">
+        <v>16</v>
+      </c>
+      <c r="P177">
+        <v>16</v>
+      </c>
+      <c r="Q177">
+        <v>16</v>
+      </c>
+      <c r="R177">
+        <v>16</v>
+      </c>
+      <c r="S177">
+        <v>16</v>
+      </c>
+      <c r="T177">
+        <v>16</v>
+      </c>
+      <c r="U177">
+        <v>16</v>
+      </c>
+      <c r="V177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178">
+        <v>3</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>3</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179">
+        <v>103</v>
+      </c>
+      <c r="E179">
+        <v>102</v>
+      </c>
+      <c r="F179">
+        <v>103</v>
+      </c>
+      <c r="G179">
+        <v>103</v>
+      </c>
+      <c r="H179">
+        <v>103</v>
+      </c>
+      <c r="I179">
+        <v>103</v>
+      </c>
+      <c r="J179">
+        <v>103</v>
+      </c>
+      <c r="K179">
+        <v>103</v>
+      </c>
+      <c r="L179">
+        <v>103</v>
+      </c>
+      <c r="M179">
+        <v>103</v>
+      </c>
+      <c r="N179">
+        <v>103</v>
+      </c>
+      <c r="O179">
+        <v>103</v>
+      </c>
+      <c r="P179">
+        <v>103</v>
+      </c>
+      <c r="Q179">
+        <v>103</v>
+      </c>
+      <c r="R179">
+        <v>103</v>
+      </c>
+      <c r="S179">
+        <v>103</v>
+      </c>
+      <c r="T179">
+        <v>103</v>
+      </c>
+      <c r="U179">
+        <v>103</v>
+      </c>
+      <c r="V179">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+      <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+      <c r="J180">
+        <v>4</v>
+      </c>
+      <c r="K180">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>4</v>
+      </c>
+      <c r="U180">
+        <v>4</v>
+      </c>
+      <c r="V180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" t="s">
         <v>53</v>
       </c>
-      <c r="D175">
-        <v>978</v>
-      </c>
-      <c r="E175">
-        <v>972</v>
-      </c>
-      <c r="F175">
-        <v>978</v>
-      </c>
-      <c r="G175">
-        <v>978</v>
-      </c>
-      <c r="H175">
-        <v>978</v>
-      </c>
-      <c r="I175">
-        <v>978</v>
-      </c>
-      <c r="J175">
-        <v>978</v>
-      </c>
-      <c r="K175">
-        <v>978</v>
-      </c>
-      <c r="L175">
-        <v>978</v>
-      </c>
-      <c r="M175">
-        <v>978</v>
-      </c>
-      <c r="N175">
-        <v>978</v>
-      </c>
-      <c r="O175">
-        <v>978</v>
-      </c>
-      <c r="P175">
-        <v>978</v>
-      </c>
-      <c r="Q175">
-        <v>978</v>
-      </c>
-      <c r="R175">
-        <v>978</v>
-      </c>
-      <c r="S175">
-        <v>978</v>
-      </c>
-      <c r="T175">
-        <v>978</v>
-      </c>
-      <c r="U175">
-        <v>978</v>
-      </c>
-      <c r="V175">
-        <v>978</v>
+      <c r="D181">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181">
+        <v>20</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
+      </c>
+      <c r="I181">
+        <v>20</v>
+      </c>
+      <c r="J181">
+        <v>20</v>
+      </c>
+      <c r="K181">
+        <v>20</v>
+      </c>
+      <c r="L181">
+        <v>20</v>
+      </c>
+      <c r="M181">
+        <v>20</v>
+      </c>
+      <c r="N181">
+        <v>20</v>
+      </c>
+      <c r="O181">
+        <v>20</v>
+      </c>
+      <c r="P181">
+        <v>20</v>
+      </c>
+      <c r="Q181">
+        <v>20</v>
+      </c>
+      <c r="R181">
+        <v>20</v>
+      </c>
+      <c r="S181">
+        <v>20</v>
+      </c>
+      <c r="T181">
+        <v>20</v>
+      </c>
+      <c r="U181">
+        <v>20</v>
+      </c>
+      <c r="V181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>50</v>
+      </c>
+      <c r="C182" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182">
+        <v>220</v>
+      </c>
+      <c r="E182">
+        <v>220</v>
+      </c>
+      <c r="F182">
+        <v>220</v>
+      </c>
+      <c r="G182">
+        <v>220</v>
+      </c>
+      <c r="H182">
+        <v>220</v>
+      </c>
+      <c r="I182">
+        <v>220</v>
+      </c>
+      <c r="J182">
+        <v>220</v>
+      </c>
+      <c r="K182">
+        <v>220</v>
+      </c>
+      <c r="L182">
+        <v>220</v>
+      </c>
+      <c r="M182">
+        <v>220</v>
+      </c>
+      <c r="N182">
+        <v>220</v>
+      </c>
+      <c r="O182">
+        <v>220</v>
+      </c>
+      <c r="P182">
+        <v>220</v>
+      </c>
+      <c r="Q182">
+        <v>220</v>
+      </c>
+      <c r="R182">
+        <v>220</v>
+      </c>
+      <c r="S182">
+        <v>220</v>
+      </c>
+      <c r="T182">
+        <v>220</v>
+      </c>
+      <c r="U182">
+        <v>220</v>
+      </c>
+      <c r="V182">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183">
+        <v>212</v>
+      </c>
+      <c r="E183">
+        <v>211</v>
+      </c>
+      <c r="F183">
+        <v>212</v>
+      </c>
+      <c r="G183">
+        <v>212</v>
+      </c>
+      <c r="H183">
+        <v>212</v>
+      </c>
+      <c r="I183">
+        <v>212</v>
+      </c>
+      <c r="J183">
+        <v>212</v>
+      </c>
+      <c r="K183">
+        <v>212</v>
+      </c>
+      <c r="L183">
+        <v>212</v>
+      </c>
+      <c r="M183">
+        <v>212</v>
+      </c>
+      <c r="N183">
+        <v>212</v>
+      </c>
+      <c r="O183">
+        <v>212</v>
+      </c>
+      <c r="P183">
+        <v>212</v>
+      </c>
+      <c r="Q183">
+        <v>212</v>
+      </c>
+      <c r="R183">
+        <v>212</v>
+      </c>
+      <c r="S183">
+        <v>212</v>
+      </c>
+      <c r="T183">
+        <v>212</v>
+      </c>
+      <c r="U183">
+        <v>212</v>
+      </c>
+      <c r="V183">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>50</v>
+      </c>
+      <c r="C184" t="s">
+        <v>52</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+      <c r="T184">
+        <v>1</v>
+      </c>
+      <c r="U184">
+        <v>1</v>
+      </c>
+      <c r="V184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185">
+        <v>153</v>
+      </c>
+      <c r="E185">
+        <v>151</v>
+      </c>
+      <c r="F185">
+        <v>153</v>
+      </c>
+      <c r="G185">
+        <v>153</v>
+      </c>
+      <c r="H185">
+        <v>153</v>
+      </c>
+      <c r="I185">
+        <v>153</v>
+      </c>
+      <c r="J185">
+        <v>153</v>
+      </c>
+      <c r="K185">
+        <v>153</v>
+      </c>
+      <c r="L185">
+        <v>153</v>
+      </c>
+      <c r="M185">
+        <v>153</v>
+      </c>
+      <c r="N185">
+        <v>153</v>
+      </c>
+      <c r="O185">
+        <v>153</v>
+      </c>
+      <c r="P185">
+        <v>153</v>
+      </c>
+      <c r="Q185">
+        <v>153</v>
+      </c>
+      <c r="R185">
+        <v>153</v>
+      </c>
+      <c r="S185">
+        <v>153</v>
+      </c>
+      <c r="T185">
+        <v>153</v>
+      </c>
+      <c r="U185">
+        <v>153</v>
+      </c>
+      <c r="V185">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V175" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2022-06"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDF3FB0F0DF72C4CA625701E7555E93FF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08B9C4F-626C-403B-8166-B1F7A6815B83}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="72">
   <si>
     <t>month_year</t>
   </si>
@@ -228,12 +234,15 @@
   <si>
     <t>Portugal</t>
   </si>
+  <si>
+    <t>Centaurus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +305,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -342,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +391,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +443,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,14 +636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -723,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -791,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -859,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -927,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -995,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1063,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1131,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1199,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1267,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1403,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1539,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1607,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1675,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1743,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1811,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1879,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1947,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2015,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2083,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2151,7 +2206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2287,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2423,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2491,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2559,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2627,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2695,7 +2750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2763,7 +2818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2831,7 +2886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2899,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2967,7 +3022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3035,7 +3090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3103,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3171,7 +3226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3239,7 +3294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3307,7 +3362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3375,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3443,7 +3498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3511,7 +3566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3579,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3647,7 +3702,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3715,7 +3770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3783,7 +3838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3851,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3919,7 +3974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3987,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4055,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4123,7 +4178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4191,7 +4246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4259,7 +4314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4327,7 +4382,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4395,7 +4450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4463,7 +4518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4531,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4599,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4667,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4735,7 +4790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4803,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4871,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4939,7 +4994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5007,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5075,7 +5130,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5143,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5211,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5279,7 +5334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5347,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5415,7 +5470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5483,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5551,7 +5606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5619,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5687,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5755,7 +5810,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5823,7 +5878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5891,7 +5946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5959,7 +6014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6027,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6095,7 +6150,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6163,7 +6218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6231,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6299,7 +6354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6367,7 +6422,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6435,7 +6490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6503,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6571,7 +6626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6639,7 +6694,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6707,7 +6762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6775,7 +6830,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6843,7 +6898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6911,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6979,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7047,7 +7102,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7115,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7183,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7251,7 +7306,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7319,7 +7374,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7387,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7455,7 +7510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7523,7 +7578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7591,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7659,7 +7714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7727,7 +7782,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7795,7 +7850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7863,7 +7918,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7931,7 +7986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7999,7 +8054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8067,7 +8122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8135,7 +8190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8203,7 +8258,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8271,7 +8326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8339,7 +8394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8407,7 +8462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8475,7 +8530,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8543,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8611,7 +8666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8679,7 +8734,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8747,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8815,7 +8870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8883,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8951,7 +9006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9019,7 +9074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9087,7 +9142,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9155,7 +9210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9223,7 +9278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9291,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9359,7 +9414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9427,7 +9482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9495,7 +9550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9563,7 +9618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9574,64 +9629,64 @@
         <v>66</v>
       </c>
       <c r="D133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="I133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="J133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="K133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="L133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="M133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="N133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="O133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="P133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="Q133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="R133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="S133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="T133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="U133">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="V133">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9699,7 +9754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9767,7 +9822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9835,7 +9890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9903,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9971,7 +10026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10039,7 +10094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10107,7 +10162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10175,7 +10230,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10243,7 +10298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10311,7 +10366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10379,7 +10434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10447,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10515,7 +10570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10583,7 +10638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10651,7 +10706,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10719,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10787,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10855,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10923,7 +10978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10991,7 +11046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11059,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11127,7 +11182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11195,7 +11250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11263,7 +11318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11274,64 +11329,64 @@
         <v>66</v>
       </c>
       <c r="D158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E158">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="R158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U158">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="V158">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11399,7 +11454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11467,7 +11522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11535,7 +11590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11603,7 +11658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11671,72 +11726,75 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>49</v>
       </c>
+      <c r="C164" t="s">
+        <v>66</v>
+      </c>
       <c r="D164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="U164">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="V164">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11804,7 +11862,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11872,7 +11930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11940,7 +11998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11951,64 +12009,64 @@
         <v>66</v>
       </c>
       <c r="D168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E168">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="G168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="H168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="I168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="J168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="K168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="L168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="M168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="N168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="O168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="P168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="Q168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="R168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="S168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="T168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="U168">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="V168">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12076,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12087,64 +12145,64 @@
         <v>55</v>
       </c>
       <c r="D170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U170">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V170">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12212,7 +12270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12223,64 +12281,64 @@
         <v>70</v>
       </c>
       <c r="D172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E172">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="N172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="O172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="P172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="R172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="S172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="T172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="U172">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="V172">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12291,64 +12349,64 @@
         <v>68</v>
       </c>
       <c r="D173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E173">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="I173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="J173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="M173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="N173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="O173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="Q173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="R173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="S173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="T173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="U173">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="V173">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12416,7 +12474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12427,129 +12485,132 @@
         <v>54</v>
       </c>
       <c r="D175">
+        <v>1068</v>
+      </c>
+      <c r="E175">
         <v>1061</v>
       </c>
-      <c r="E175">
-        <v>1054</v>
-      </c>
       <c r="F175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="G175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="H175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="I175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="J175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="K175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="L175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="M175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="N175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="O175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="P175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="Q175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="R175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="S175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="T175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="U175">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="V175">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>50</v>
       </c>
+      <c r="C176" t="s">
+        <v>66</v>
+      </c>
       <c r="D176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="E176">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="F176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="G176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="J176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="K176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="L176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="M176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="N176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="O176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="P176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="Q176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="R176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="S176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="T176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="U176">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="V176">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12557,67 +12618,67 @@
         <v>50</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U177">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V177">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12625,67 +12686,67 @@
         <v>50</v>
       </c>
       <c r="C178" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12693,67 +12754,67 @@
         <v>50</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="H179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="L179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="N179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="O179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="P179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="Q179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="R179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="S179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="T179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="U179">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="V179">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12761,67 +12822,67 @@
         <v>50</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V180">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12829,67 +12890,67 @@
         <v>50</v>
       </c>
       <c r="C181" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="E181">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="F181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="G181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="H181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="J181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="K181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="L181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="M181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="O181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="P181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="Q181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="R181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="S181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="T181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="U181">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="V181">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12897,67 +12958,67 @@
         <v>50</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="E182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="F182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="G182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="H182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="J182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="K182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="L182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="N182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="O182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="Q182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="R182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="S182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="T182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="U182">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="V182">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12965,67 +13026,67 @@
         <v>50</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="F183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="G183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="H183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="J183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="K183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="L183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="M183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="N183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="O183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="P183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="Q183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="R183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="S183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="T183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="U183">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="V183">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13033,67 +13094,67 @@
         <v>50</v>
       </c>
       <c r="C184" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="O184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="P184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="Q184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="R184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="S184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="T184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="U184">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="V184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13101,64 +13162,200 @@
         <v>50</v>
       </c>
       <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185">
+        <v>458</v>
+      </c>
+      <c r="E185">
+        <v>453</v>
+      </c>
+      <c r="F185">
+        <v>458</v>
+      </c>
+      <c r="G185">
+        <v>458</v>
+      </c>
+      <c r="H185">
+        <v>458</v>
+      </c>
+      <c r="I185">
+        <v>458</v>
+      </c>
+      <c r="J185">
+        <v>458</v>
+      </c>
+      <c r="K185">
+        <v>458</v>
+      </c>
+      <c r="L185">
+        <v>458</v>
+      </c>
+      <c r="M185">
+        <v>458</v>
+      </c>
+      <c r="N185">
+        <v>458</v>
+      </c>
+      <c r="O185">
+        <v>458</v>
+      </c>
+      <c r="P185">
+        <v>458</v>
+      </c>
+      <c r="Q185">
+        <v>458</v>
+      </c>
+      <c r="R185">
+        <v>458</v>
+      </c>
+      <c r="S185">
+        <v>458</v>
+      </c>
+      <c r="T185">
+        <v>458</v>
+      </c>
+      <c r="U185">
+        <v>458</v>
+      </c>
+      <c r="V185">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>50</v>
+      </c>
+      <c r="C186" t="s">
+        <v>52</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186">
+        <v>1</v>
+      </c>
+      <c r="U186">
+        <v>1</v>
+      </c>
+      <c r="V186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" t="s">
         <v>54</v>
       </c>
-      <c r="D185">
-        <v>153</v>
-      </c>
-      <c r="E185">
-        <v>151</v>
-      </c>
-      <c r="F185">
-        <v>153</v>
-      </c>
-      <c r="G185">
-        <v>153</v>
-      </c>
-      <c r="H185">
-        <v>153</v>
-      </c>
-      <c r="I185">
-        <v>153</v>
-      </c>
-      <c r="J185">
-        <v>153</v>
-      </c>
-      <c r="K185">
-        <v>153</v>
-      </c>
-      <c r="L185">
-        <v>153</v>
-      </c>
-      <c r="M185">
-        <v>153</v>
-      </c>
-      <c r="N185">
-        <v>153</v>
-      </c>
-      <c r="O185">
-        <v>153</v>
-      </c>
-      <c r="P185">
-        <v>153</v>
-      </c>
-      <c r="Q185">
-        <v>153</v>
-      </c>
-      <c r="R185">
-        <v>153</v>
-      </c>
-      <c r="S185">
-        <v>153</v>
-      </c>
-      <c r="T185">
-        <v>153</v>
-      </c>
-      <c r="U185">
-        <v>153</v>
-      </c>
-      <c r="V185">
-        <v>153</v>
+      <c r="D187">
+        <v>233</v>
+      </c>
+      <c r="E187">
+        <v>229</v>
+      </c>
+      <c r="F187">
+        <v>233</v>
+      </c>
+      <c r="G187">
+        <v>233</v>
+      </c>
+      <c r="H187">
+        <v>233</v>
+      </c>
+      <c r="I187">
+        <v>233</v>
+      </c>
+      <c r="J187">
+        <v>233</v>
+      </c>
+      <c r="K187">
+        <v>233</v>
+      </c>
+      <c r="L187">
+        <v>233</v>
+      </c>
+      <c r="M187">
+        <v>233</v>
+      </c>
+      <c r="N187">
+        <v>233</v>
+      </c>
+      <c r="O187">
+        <v>233</v>
+      </c>
+      <c r="P187">
+        <v>233</v>
+      </c>
+      <c r="Q187">
+        <v>233</v>
+      </c>
+      <c r="R187">
+        <v>233</v>
+      </c>
+      <c r="S187">
+        <v>233</v>
+      </c>
+      <c r="T187">
+        <v>233</v>
+      </c>
+      <c r="U187">
+        <v>233</v>
+      </c>
+      <c r="V187">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDF3FB0F0DF72C4CA625701E7555E93FF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08B9C4F-626C-403B-8166-B1F7A6815B83}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED2EBB8C251B2D4CBEBDB40AC154E93FF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B2A6C14-27EE-4164-9215-6CE5D2383A36}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9085,61 +9085,61 @@
         <v>66</v>
       </c>
       <c r="D125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E125">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="G125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="J125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="K125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="O125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="P125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="Q125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="R125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="S125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="T125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="U125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="V125">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.4">
@@ -9629,61 +9629,61 @@
         <v>66</v>
       </c>
       <c r="D133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="J133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="K133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="L133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="M133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="N133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="O133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="P133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="Q133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="R133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="S133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="T133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="U133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="V133">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.4">
@@ -11193,61 +11193,61 @@
         <v>67</v>
       </c>
       <c r="D156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U156">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V156">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.4">
@@ -11329,61 +11329,61 @@
         <v>66</v>
       </c>
       <c r="D158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E158">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="J158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="L158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="M158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="N158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="O158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Q158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="R158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="S158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="T158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="U158">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="V158">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.4">
@@ -12009,61 +12009,61 @@
         <v>66</v>
       </c>
       <c r="D168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E168">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="I168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="K168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="L168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="M168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="O168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="Q168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="R168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="S168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="T168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="U168">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="V168">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.4">
@@ -12213,61 +12213,61 @@
         <v>53</v>
       </c>
       <c r="D171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E171">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U171">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V171">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.4">
@@ -12281,61 +12281,61 @@
         <v>70</v>
       </c>
       <c r="D172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E172">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="R172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="S172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="T172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="U172">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="V172">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.4">
@@ -12349,61 +12349,61 @@
         <v>68</v>
       </c>
       <c r="D173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E173">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="O173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="R173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="S173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="T173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="U173">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="V173">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.4">
@@ -12485,61 +12485,61 @@
         <v>54</v>
       </c>
       <c r="D175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E175">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="F175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="G175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="H175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="I175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="J175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="K175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="L175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="M175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="N175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="O175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="P175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="Q175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="R175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="S175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="T175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="U175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="V175">
-        <v>1068</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.4">
@@ -12553,61 +12553,61 @@
         <v>66</v>
       </c>
       <c r="D176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="E176">
-        <v>239</v>
+        <v>462</v>
       </c>
       <c r="F176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="G176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="H176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="I176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="J176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="K176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="L176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="M176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="N176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="O176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="P176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="Q176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="R176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="S176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="T176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="U176">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="V176">
-        <v>241</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.4">
@@ -12757,61 +12757,61 @@
         <v>63</v>
       </c>
       <c r="D179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U179">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V179">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.4">
@@ -12893,61 +12893,61 @@
         <v>66</v>
       </c>
       <c r="D181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="E181">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="F181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="G181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="H181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="I181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="J181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="K181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="L181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="M181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="N181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="O181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="P181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="Q181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="R181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="S181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="T181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="U181">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="V181">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.4">
@@ -13029,61 +13029,61 @@
         <v>53</v>
       </c>
       <c r="D183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U183">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V183">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.4">
@@ -13097,61 +13097,61 @@
         <v>70</v>
       </c>
       <c r="D184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="E184">
-        <v>401</v>
+        <v>656</v>
       </c>
       <c r="F184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="G184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="H184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="I184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="J184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="K184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="L184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="M184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="N184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="O184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="P184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="Q184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="R184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="S184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="T184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="U184">
-        <v>402</v>
+        <v>659</v>
       </c>
       <c r="V184">
-        <v>402</v>
+        <v>659</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.4">
@@ -13165,61 +13165,61 @@
         <v>68</v>
       </c>
       <c r="D185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="E185">
-        <v>453</v>
+        <v>716</v>
       </c>
       <c r="F185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="G185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="H185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="I185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="J185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="K185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="L185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="M185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="N185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="O185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="P185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="Q185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="R185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="S185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="T185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="U185">
-        <v>458</v>
+        <v>721</v>
       </c>
       <c r="V185">
-        <v>458</v>
+        <v>721</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.4">
@@ -13233,61 +13233,61 @@
         <v>52</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.4">
@@ -13301,61 +13301,61 @@
         <v>54</v>
       </c>
       <c r="D187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="E187">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="F187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="G187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="H187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="I187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="J187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="K187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="L187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="M187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="N187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="O187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="P187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="Q187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="R187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="S187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="T187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="U187">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="V187">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED2E1BCE02632D4C9E7D8412E8652B169E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE784C25-B967-4502-B7AE-CDB80FAA523B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-5556" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="73">
   <si>
     <t>month_year</t>
   </si>
@@ -238,8 +256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +320,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +406,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +458,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,14 +651,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -729,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -797,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -865,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -933,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1001,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1069,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1137,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1205,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1273,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1341,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1409,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1477,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1545,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1681,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1749,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1817,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1885,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1953,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2021,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2089,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2157,7 +2221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2225,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2293,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2361,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2429,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2497,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2565,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2633,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2701,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2769,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2837,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2905,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2973,7 +3037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3041,7 +3105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3109,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3177,7 +3241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3245,7 +3309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3313,7 +3377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3381,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3449,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3517,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3585,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3653,7 +3717,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3721,7 +3785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3789,7 +3853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3857,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3925,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3993,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4061,7 +4125,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4129,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4197,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4265,7 +4329,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4333,7 +4397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4401,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4469,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4537,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4605,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4673,7 +4737,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4741,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4809,7 +4873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4877,7 +4941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4945,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5013,7 +5077,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5081,7 +5145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5149,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5217,7 +5281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5285,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5353,7 +5417,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5421,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5489,7 +5553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5557,7 +5621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5625,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5693,7 +5757,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5761,7 +5825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5829,7 +5893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5897,7 +5961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5965,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6033,7 +6097,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6101,7 +6165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6169,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6237,7 +6301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6305,7 +6369,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6373,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6441,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6509,7 +6573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6577,7 +6641,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6645,7 +6709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6713,7 +6777,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6781,7 +6845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6849,7 +6913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6917,7 +6981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6985,7 +7049,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7053,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7121,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7189,7 +7253,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7257,7 +7321,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7325,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7393,7 +7457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7461,7 +7525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7529,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7597,7 +7661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7665,7 +7729,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7733,7 +7797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7801,7 +7865,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7869,7 +7933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7937,7 +8001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8005,7 +8069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8073,7 +8137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8141,7 +8205,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8209,7 +8273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8277,7 +8341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8345,7 +8409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8413,7 +8477,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8481,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8549,7 +8613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8617,7 +8681,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8685,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8753,7 +8817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8821,7 +8885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8889,7 +8953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8957,7 +9021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9025,7 +9089,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9093,7 +9157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9161,7 +9225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9229,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9297,7 +9361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9365,7 +9429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9433,7 +9497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9501,7 +9565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9569,7 +9633,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9637,7 +9701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9705,7 +9769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9773,7 +9837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9841,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9909,7 +9973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9977,7 +10041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10045,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10113,7 +10177,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10181,7 +10245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10249,7 +10313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10317,7 +10381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10385,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10453,7 +10517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10521,7 +10585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10589,7 +10653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10657,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10725,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10793,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10861,7 +10925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10929,7 +10993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10997,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11065,7 +11129,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11133,7 +11197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11201,7 +11265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11269,7 +11333,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11337,7 +11401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11405,7 +11469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11473,7 +11537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11541,7 +11605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11609,7 +11673,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11677,7 +11741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11745,7 +11809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11813,7 +11877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11881,7 +11945,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11949,7 +12013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -12017,7 +12081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12085,7 +12149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12153,7 +12217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12221,7 +12285,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12289,7 +12353,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12357,7 +12421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12425,7 +12489,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12433,67 +12497,67 @@
         <v>50</v>
       </c>
       <c r="C175" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="V175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12501,67 +12565,67 @@
         <v>50</v>
       </c>
       <c r="C176" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="R176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="S176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="T176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12569,67 +12633,67 @@
         <v>50</v>
       </c>
       <c r="C177" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="J177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="P177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="Q177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="U177">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="V177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12637,67 +12701,67 @@
         <v>50</v>
       </c>
       <c r="C178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="F178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="G178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="H178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="J178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="K178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="O178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="R178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="S178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="T178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="U178">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="V178">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12705,67 +12769,67 @@
         <v>50</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="O179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="P179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="S179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="T179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U179">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V179">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12773,67 +12837,67 @@
         <v>50</v>
       </c>
       <c r="C180" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="E180">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="F180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="G180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="H180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="I180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="J180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="K180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="L180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="M180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="N180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="O180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="P180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="Q180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="R180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="S180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="T180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="U180">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="V180">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12841,67 +12905,67 @@
         <v>50</v>
       </c>
       <c r="C181" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U181">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V181">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12909,67 +12973,67 @@
         <v>50</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="E182">
-        <v>829</v>
+        <v>15</v>
       </c>
       <c r="F182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="G182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="H182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="I182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="J182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="K182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="L182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="M182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="N182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="O182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="P182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="Q182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="R182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="S182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="T182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="U182">
-        <v>832</v>
+        <v>15</v>
       </c>
       <c r="V182">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12977,67 +13041,67 @@
         <v>50</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="E183">
-        <v>855</v>
+        <v>34</v>
       </c>
       <c r="F183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="G183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="I183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="J183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="K183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="L183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="M183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="N183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="O183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="P183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="Q183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="R183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="S183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="T183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="U183">
-        <v>860</v>
+        <v>34</v>
       </c>
       <c r="V183">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13045,67 +13109,67 @@
         <v>50</v>
       </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>986</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="O184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="P184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="Q184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="V184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13113,203 +13177,203 @@
         <v>50</v>
       </c>
       <c r="C185" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="E185">
-        <v>817</v>
+        <v>1023</v>
       </c>
       <c r="F185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="G185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="H185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="I185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="J185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="K185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="L185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="M185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="N185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="O185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="P185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="Q185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="R185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="S185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="T185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="U185">
-        <v>822</v>
+        <v>1028</v>
       </c>
       <c r="V185">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C186" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C187" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>919</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="K187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="L187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="O187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="P187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="V187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -13317,64 +13381,676 @@
         <v>51</v>
       </c>
       <c r="C188" t="s">
+        <v>66</v>
+      </c>
+      <c r="D188">
+        <v>138</v>
+      </c>
+      <c r="E188">
+        <v>138</v>
+      </c>
+      <c r="F188">
+        <v>138</v>
+      </c>
+      <c r="G188">
+        <v>138</v>
+      </c>
+      <c r="H188">
+        <v>138</v>
+      </c>
+      <c r="I188">
+        <v>138</v>
+      </c>
+      <c r="J188">
+        <v>138</v>
+      </c>
+      <c r="K188">
+        <v>138</v>
+      </c>
+      <c r="L188">
+        <v>138</v>
+      </c>
+      <c r="M188">
+        <v>138</v>
+      </c>
+      <c r="N188">
+        <v>138</v>
+      </c>
+      <c r="O188">
+        <v>138</v>
+      </c>
+      <c r="P188">
+        <v>138</v>
+      </c>
+      <c r="Q188">
+        <v>138</v>
+      </c>
+      <c r="R188">
+        <v>138</v>
+      </c>
+      <c r="S188">
+        <v>138</v>
+      </c>
+      <c r="T188">
+        <v>138</v>
+      </c>
+      <c r="U188">
+        <v>138</v>
+      </c>
+      <c r="V188">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" t="s">
+        <v>72</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189">
+        <v>1</v>
+      </c>
+      <c r="U189">
+        <v>1</v>
+      </c>
+      <c r="V189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>51</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190">
+        <v>3</v>
+      </c>
+      <c r="P190">
+        <v>3</v>
+      </c>
+      <c r="Q190">
+        <v>3</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>3</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>3</v>
+      </c>
+      <c r="V190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>51</v>
+      </c>
+      <c r="C191" t="s">
+        <v>66</v>
+      </c>
+      <c r="D191">
+        <v>13</v>
+      </c>
+      <c r="E191">
+        <v>13</v>
+      </c>
+      <c r="F191">
+        <v>13</v>
+      </c>
+      <c r="G191">
+        <v>13</v>
+      </c>
+      <c r="H191">
+        <v>13</v>
+      </c>
+      <c r="I191">
+        <v>13</v>
+      </c>
+      <c r="J191">
+        <v>13</v>
+      </c>
+      <c r="K191">
+        <v>13</v>
+      </c>
+      <c r="L191">
+        <v>13</v>
+      </c>
+      <c r="M191">
+        <v>13</v>
+      </c>
+      <c r="N191">
+        <v>13</v>
+      </c>
+      <c r="O191">
+        <v>13</v>
+      </c>
+      <c r="P191">
+        <v>13</v>
+      </c>
+      <c r="Q191">
+        <v>13</v>
+      </c>
+      <c r="R191">
+        <v>13</v>
+      </c>
+      <c r="S191">
+        <v>13</v>
+      </c>
+      <c r="T191">
+        <v>13</v>
+      </c>
+      <c r="U191">
+        <v>13</v>
+      </c>
+      <c r="V191">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>18</v>
+      </c>
+      <c r="G192">
+        <v>18</v>
+      </c>
+      <c r="H192">
+        <v>18</v>
+      </c>
+      <c r="I192">
+        <v>18</v>
+      </c>
+      <c r="J192">
+        <v>18</v>
+      </c>
+      <c r="K192">
+        <v>18</v>
+      </c>
+      <c r="L192">
+        <v>18</v>
+      </c>
+      <c r="M192">
+        <v>18</v>
+      </c>
+      <c r="N192">
+        <v>18</v>
+      </c>
+      <c r="O192">
+        <v>18</v>
+      </c>
+      <c r="P192">
+        <v>18</v>
+      </c>
+      <c r="Q192">
+        <v>18</v>
+      </c>
+      <c r="R192">
+        <v>18</v>
+      </c>
+      <c r="S192">
+        <v>18</v>
+      </c>
+      <c r="T192">
+        <v>18</v>
+      </c>
+      <c r="U192">
+        <v>18</v>
+      </c>
+      <c r="V192">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" t="s">
+        <v>71</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194">
+        <v>3</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194">
+        <v>3</v>
+      </c>
+      <c r="P194">
+        <v>3</v>
+      </c>
+      <c r="Q194">
+        <v>3</v>
+      </c>
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>3</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>51</v>
+      </c>
+      <c r="C195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195">
+        <v>253</v>
+      </c>
+      <c r="E195">
+        <v>253</v>
+      </c>
+      <c r="F195">
+        <v>253</v>
+      </c>
+      <c r="G195">
+        <v>253</v>
+      </c>
+      <c r="H195">
+        <v>253</v>
+      </c>
+      <c r="I195">
+        <v>253</v>
+      </c>
+      <c r="J195">
+        <v>253</v>
+      </c>
+      <c r="K195">
+        <v>253</v>
+      </c>
+      <c r="L195">
+        <v>253</v>
+      </c>
+      <c r="M195">
+        <v>253</v>
+      </c>
+      <c r="N195">
+        <v>253</v>
+      </c>
+      <c r="O195">
+        <v>253</v>
+      </c>
+      <c r="P195">
+        <v>253</v>
+      </c>
+      <c r="Q195">
+        <v>253</v>
+      </c>
+      <c r="R195">
+        <v>253</v>
+      </c>
+      <c r="S195">
+        <v>253</v>
+      </c>
+      <c r="T195">
+        <v>253</v>
+      </c>
+      <c r="U195">
+        <v>253</v>
+      </c>
+      <c r="V195">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196">
+        <v>250</v>
+      </c>
+      <c r="E196">
+        <v>250</v>
+      </c>
+      <c r="F196">
+        <v>250</v>
+      </c>
+      <c r="G196">
+        <v>250</v>
+      </c>
+      <c r="H196">
+        <v>250</v>
+      </c>
+      <c r="I196">
+        <v>250</v>
+      </c>
+      <c r="J196">
+        <v>250</v>
+      </c>
+      <c r="K196">
+        <v>250</v>
+      </c>
+      <c r="L196">
+        <v>250</v>
+      </c>
+      <c r="M196">
+        <v>250</v>
+      </c>
+      <c r="N196">
+        <v>250</v>
+      </c>
+      <c r="O196">
+        <v>250</v>
+      </c>
+      <c r="P196">
+        <v>250</v>
+      </c>
+      <c r="Q196">
+        <v>250</v>
+      </c>
+      <c r="R196">
+        <v>250</v>
+      </c>
+      <c r="S196">
+        <v>250</v>
+      </c>
+      <c r="T196">
+        <v>250</v>
+      </c>
+      <c r="U196">
+        <v>250</v>
+      </c>
+      <c r="V196">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" t="s">
         <v>55</v>
       </c>
-      <c r="D188">
-        <v>2</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-      <c r="F188">
-        <v>2</v>
-      </c>
-      <c r="G188">
-        <v>2</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188">
-        <v>2</v>
-      </c>
-      <c r="K188">
-        <v>2</v>
-      </c>
-      <c r="L188">
-        <v>2</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>2</v>
-      </c>
-      <c r="O188">
-        <v>2</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
-      <c r="Q188">
-        <v>2</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>2</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>2</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
+      <c r="D197">
+        <v>171</v>
+      </c>
+      <c r="E197">
+        <v>168</v>
+      </c>
+      <c r="F197">
+        <v>171</v>
+      </c>
+      <c r="G197">
+        <v>171</v>
+      </c>
+      <c r="H197">
+        <v>171</v>
+      </c>
+      <c r="I197">
+        <v>171</v>
+      </c>
+      <c r="J197">
+        <v>171</v>
+      </c>
+      <c r="K197">
+        <v>171</v>
+      </c>
+      <c r="L197">
+        <v>171</v>
+      </c>
+      <c r="M197">
+        <v>171</v>
+      </c>
+      <c r="N197">
+        <v>171</v>
+      </c>
+      <c r="O197">
+        <v>171</v>
+      </c>
+      <c r="P197">
+        <v>171</v>
+      </c>
+      <c r="Q197">
+        <v>171</v>
+      </c>
+      <c r="R197">
+        <v>171</v>
+      </c>
+      <c r="S197">
+        <v>171</v>
+      </c>
+      <c r="T197">
+        <v>171</v>
+      </c>
+      <c r="U197">
+        <v>171</v>
+      </c>
+      <c r="V197">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/linajes_2.xlsx
+++ b/linajes_2.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2b4d56148715ad/Projects/Covid-19/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED2E1BCE02632D4C9E7D8412E8652B169E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE784C25-B967-4502-B7AE-CDB80FAA523B}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-5556" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="73">
   <si>
     <t>month_year</t>
   </si>
@@ -256,8 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,14 +302,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -374,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,27 +380,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,24 +414,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,16 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -793,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -861,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -929,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -997,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1065,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1201,7 +1137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1269,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1337,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1405,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1473,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1541,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1609,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1677,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1745,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1813,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1881,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1949,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2017,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2085,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2153,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2221,7 +2157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2289,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2357,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2425,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2493,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2561,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2629,7 +2565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2697,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2765,7 +2701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2833,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2901,7 +2837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2969,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3037,7 +2973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3105,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3173,7 +3109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3241,7 +3177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3309,7 +3245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3377,7 +3313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3445,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3513,7 +3449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3581,7 +3517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3649,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3717,7 +3653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3785,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3853,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3921,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3989,7 +3925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4057,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4125,7 +4061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4193,7 +4129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4261,7 +4197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4329,7 +4265,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4397,7 +4333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4465,7 +4401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4533,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4601,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4669,7 +4605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4737,7 +4673,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4805,7 +4741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4873,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4941,7 +4877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5009,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5077,7 +5013,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5145,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5213,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5281,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5349,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5417,7 +5353,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5485,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5553,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5621,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5689,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5757,7 +5693,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5825,7 +5761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5893,7 +5829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5961,7 +5897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6029,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6097,7 +6033,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6165,7 +6101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6233,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6301,7 +6237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6369,7 +6305,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6437,7 +6373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6505,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6573,7 +6509,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6641,7 +6577,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6709,7 +6645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6777,7 +6713,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6845,7 +6781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6913,7 +6849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6981,7 +6917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7049,7 +6985,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7117,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7185,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7253,7 +7189,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7321,7 +7257,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7389,7 +7325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7457,7 +7393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7525,7 +7461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7593,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7661,7 +7597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7729,7 +7665,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7797,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7865,7 +7801,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7933,7 +7869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8001,7 +7937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8069,7 +8005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8137,7 +8073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8205,7 +8141,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8273,7 +8209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8341,7 +8277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:22">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8409,7 +8345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8477,7 +8413,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:22">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8545,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8613,7 +8549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:22">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8681,7 +8617,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:22">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8749,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8817,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:22">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8885,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:22">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8953,7 +8889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9021,7 +8957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:22">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9089,7 +9025,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:22">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9157,7 +9093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:22">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9225,7 +9161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:22">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9293,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:22">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9361,7 +9297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9429,7 +9365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9497,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9565,7 +9501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9633,7 +9569,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9701,7 +9637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9769,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:22">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9837,7 +9773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:22">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9905,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:22">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9973,7 +9909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:22">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10041,7 +9977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:22">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10109,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10177,7 +10113,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10245,7 +10181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:22">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10313,7 +10249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:22">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10381,7 +10317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:22">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10449,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:22">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10517,7 +10453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:22">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10585,7 +10521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:22">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10653,7 +10589,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:22">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10721,7 +10657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:22">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10789,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:22">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10857,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:22">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10925,7 +10861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:22">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10993,7 +10929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:22">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11061,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:22">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11129,7 +11065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:22">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11197,7 +11133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:22">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11265,7 +11201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:22">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11333,7 +11269,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:22">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11401,7 +11337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:22">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11469,7 +11405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:22">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11537,7 +11473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:22">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11605,7 +11541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:22">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11673,7 +11609,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:22">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11741,7 +11677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:22">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11809,7 +11745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:22">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11877,7 +11813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:22">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11945,7 +11881,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:22">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -12013,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:22">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -12081,7 +12017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:22">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12149,7 +12085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:22">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12217,7 +12153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:22">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12285,7 +12221,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:22">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12353,7 +12289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:22">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12421,7 +12357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:22">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12489,16 +12425,13 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:22">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>50</v>
       </c>
-      <c r="C175" t="s">
-        <v>66</v>
-      </c>
       <c r="D175">
         <v>41</v>
       </c>
@@ -12557,7 +12490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:22">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12625,7 +12558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:22">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12693,7 +12626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:22">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12761,7 +12694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:22">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12829,7 +12762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:22">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12897,7 +12830,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:22">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12965,7 +12898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:22">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -13033,7 +12966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:22">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -13101,7 +13034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:22">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13169,7 +13102,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:22">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13237,7 +13170,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:22">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -13305,7 +13238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:22">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -13373,16 +13306,13 @@
         <v>924</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:22">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>51</v>
       </c>
-      <c r="C188" t="s">
-        <v>66</v>
-      </c>
       <c r="D188">
         <v>138</v>
       </c>
@@ -13441,7 +13371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:22">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -13509,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:22">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -13577,7 +13507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:22">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -13645,7 +13575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:22">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -13713,7 +13643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:22">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -13781,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:22">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -13849,7 +13779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:22">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13917,7 +13847,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:22">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13985,7 +13915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:22">
       <c r="A197" s="1">
         <v>195</v>
       </c>
